--- a/ooprogramming-zb0145/config.xlsx
+++ b/ooprogramming-zb0145/config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\canvas-course-scaffolder-with-course-configs\ooprogramming-zb0145\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{392ED104-DAA5-4EF4-B595-5D0178AB9528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEAFA703-A219-4D7A-BB82-3C92697B562C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="240" windowWidth="35490" windowHeight="20400" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Algemene info" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="155">
   <si>
     <t>Naam</t>
   </si>
@@ -414,9 +414,6 @@
     <t>Theorie (pptx)</t>
   </si>
   <si>
-    <t>https://www.google.be/</t>
-  </si>
-  <si>
     <t>Oefeningen</t>
   </si>
   <si>
@@ -478,6 +475,42 @@
   </si>
   <si>
     <t>https://gitpub.sebastiaanh.com/public/web/c70de6bd-2cc3-4916-ab25-ca940edf4d63</t>
+  </si>
+  <si>
+    <t>https://thomasmore365-my.sharepoint.com/:p:/g/personal/u0134243_thomasmore_be/EW6LrG1-SSlEvJnfWqOtYPoBIafIca_Zg4x9LQPSKcCWNg?e=7VT4Ru</t>
+  </si>
+  <si>
+    <t>https://thomasmore365-my.sharepoint.com/:p:/g/personal/u0134243_thomasmore_be/EUTsxSX843hAgtpaYUwVHYMBjfkmbFiSIxkTcIF6gbDK2Q?e=tPWGlV</t>
+  </si>
+  <si>
+    <t>https://thomasmore365-my.sharepoint.com/:p:/g/personal/u0134243_thomasmore_be/ESp44fLzIjJFroVAVChOq9QBdeeVcVEXAKKMEpFZtQqweQ?e=ArjWAG</t>
+  </si>
+  <si>
+    <t>https://thomasmore365-my.sharepoint.com/:p:/g/personal/u0134243_thomasmore_be/EXMJFua6SZ1Fgj5mm33a85IB0mvSYvfeczr0e1z-0PiGlg?e=Utrkpc</t>
+  </si>
+  <si>
+    <t>https://thomasmore365-my.sharepoint.com/:p:/g/personal/u0134243_thomasmore_be/EZNFAPybRCRFoi7tZigZGqMBGTOjbHXLU78jrboX-t7m6A?e=z7pdey</t>
+  </si>
+  <si>
+    <t>https://thomasmore365-my.sharepoint.com/:p:/g/personal/u0134243_thomasmore_be/Ef96xOIGQbtEvfIM9vkJ4ZgBM4o_Pl4Bfm37wpEbD_wpRQ?e=xweJfy</t>
+  </si>
+  <si>
+    <t>https://thomasmore365-my.sharepoint.com/:p:/g/personal/u0134243_thomasmore_be/EQsOOT2g28dHqojzT39Gj50B6YMZLcRsUKm1ZhBeSxEycQ?e=Fz2AUY</t>
+  </si>
+  <si>
+    <t>https://thomasmore365-my.sharepoint.com/:p:/g/personal/u0134243_thomasmore_be/ESXHVGaSU4hFp6zV8emdmzgBk1uJ2MEWqQK9EF1qv_xTZA?e=nBuZ06</t>
+  </si>
+  <si>
+    <t>https://thomasmore365-my.sharepoint.com/:p:/g/personal/u0134243_thomasmore_be/EaFif5174SJNqlWdVV9UrZMBdHaX5L2gXB8KiGeAG8XEGw?e=JumuMx</t>
+  </si>
+  <si>
+    <t>https://thomasmore365-my.sharepoint.com/:p:/g/personal/u0134243_thomasmore_be/Ed3j8miqVrxNrxv8dWiFh4IBao5ocGUwqJbPLhLJ--TZBw?e=5IeW0O</t>
+  </si>
+  <si>
+    <t>https://thomasmore365-my.sharepoint.com/:p:/g/personal/u0134243_thomasmore_be/EYdMTT4FDzJLt_kdE5aBm8wBMkQCENvA23s60g6-HVlIAg?e=uEYrVX</t>
+  </si>
+  <si>
+    <t>https://thomasmore365-my.sharepoint.com/:p:/g/personal/u0134243_thomasmore_be/EbKS-eGkGzRKlAbSrLIV6XIBQ7bE6oW4L9LulW923gdqSw?e=1FYGZJ</t>
   </si>
 </sst>
 </file>
@@ -627,8 +660,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B8351439-171F-43CA-8A27-46439B0C8D5A}" name="Tabel3567" displayName="Tabel3567" ref="A1:I32" totalsRowShown="0">
-  <autoFilter ref="A1:I32" xr:uid="{B8351439-171F-43CA-8A27-46439B0C8D5A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B8351439-171F-43CA-8A27-46439B0C8D5A}" name="Tabel3567" displayName="Tabel3567" ref="A1:I102" totalsRowShown="0">
+  <autoFilter ref="A1:I102" xr:uid="{B8351439-171F-43CA-8A27-46439B0C8D5A}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{4F1B940E-7EAD-48A5-AA1E-A5E5ED525C5C}" name="Module"/>
     <tableColumn id="2" xr3:uid="{54A84E46-41BB-4012-84B6-2A4A1FB473F4}" name="Type"/>
@@ -1041,7 +1074,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1181C0AF-0EEA-45EA-A4B8-73E6C5261177}">
   <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
@@ -2300,7 +2333,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2335,7 +2368,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -2456,10 +2489,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E63DFD8-2013-40A2-8CE5-0CB5ABE5CD54}">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G75" sqref="G75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2533,19 +2566,19 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B4" t="s">
         <v>46</v>
       </c>
       <c r="C4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
         <v>126</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>127</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -2553,19 +2586,19 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B5" t="s">
         <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -2573,19 +2606,19 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B6" t="s">
         <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -2593,19 +2626,19 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B7" t="s">
         <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -2613,19 +2646,19 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B8" t="s">
         <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -2633,19 +2666,19 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B9" t="s">
         <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -2653,19 +2686,19 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B10" t="s">
         <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -2673,19 +2706,19 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B11" t="s">
         <v>46</v>
       </c>
       <c r="C11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -2693,19 +2726,19 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B12" t="s">
         <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -2776,7 +2809,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -2790,7 +2823,7 @@
         <v>119</v>
       </c>
       <c r="C17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -2805,7 +2838,7 @@
         <v>96</v>
       </c>
       <c r="B18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -2823,7 +2856,7 @@
         <v>96</v>
       </c>
       <c r="B19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -2841,7 +2874,7 @@
         <v>96</v>
       </c>
       <c r="B20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -2859,7 +2892,7 @@
         <v>96</v>
       </c>
       <c r="B21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -2877,7 +2910,7 @@
         <v>96</v>
       </c>
       <c r="B22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -2895,7 +2928,7 @@
         <v>96</v>
       </c>
       <c r="B23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -2939,7 +2972,7 @@
         <v>1</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="I25">
         <v>1</v>
@@ -2953,7 +2986,7 @@
         <v>119</v>
       </c>
       <c r="C26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -2968,7 +3001,7 @@
         <v>97</v>
       </c>
       <c r="B27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -2986,7 +3019,7 @@
         <v>97</v>
       </c>
       <c r="B28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -3004,7 +3037,7 @@
         <v>97</v>
       </c>
       <c r="B29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -3022,7 +3055,7 @@
         <v>97</v>
       </c>
       <c r="B30" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -3040,7 +3073,7 @@
         <v>97</v>
       </c>
       <c r="B31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -3058,7 +3091,7 @@
         <v>97</v>
       </c>
       <c r="B32" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -3068,6 +3101,1276 @@
       </c>
       <c r="F32" s="2"/>
       <c r="I32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>98</v>
+      </c>
+      <c r="B33" t="s">
+        <v>119</v>
+      </c>
+      <c r="C33" t="s">
+        <v>120</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>98</v>
+      </c>
+      <c r="B34" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" t="s">
+        <v>121</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>98</v>
+      </c>
+      <c r="B35" t="s">
+        <v>119</v>
+      </c>
+      <c r="C35" t="s">
+        <v>122</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="F35" s="2"/>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>98</v>
+      </c>
+      <c r="B36" t="s">
+        <v>123</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>50</v>
+      </c>
+      <c r="F36" s="2"/>
+      <c r="I36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>98</v>
+      </c>
+      <c r="B37" t="s">
+        <v>123</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>56</v>
+      </c>
+      <c r="F37" s="2"/>
+      <c r="I37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>98</v>
+      </c>
+      <c r="B38" t="s">
+        <v>123</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>57</v>
+      </c>
+      <c r="F38" s="2"/>
+      <c r="I38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>98</v>
+      </c>
+      <c r="B39" t="s">
+        <v>123</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>58</v>
+      </c>
+      <c r="F39" s="2"/>
+      <c r="I39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>98</v>
+      </c>
+      <c r="B40" t="s">
+        <v>123</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40" t="s">
+        <v>84</v>
+      </c>
+      <c r="F40" s="2"/>
+      <c r="I40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>98</v>
+      </c>
+      <c r="B41" t="s">
+        <v>123</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>85</v>
+      </c>
+      <c r="F41" s="2"/>
+      <c r="I41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>99</v>
+      </c>
+      <c r="B42" t="s">
+        <v>119</v>
+      </c>
+      <c r="C42" t="s">
+        <v>120</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>99</v>
+      </c>
+      <c r="B43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" t="s">
+        <v>121</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>99</v>
+      </c>
+      <c r="B44" t="s">
+        <v>119</v>
+      </c>
+      <c r="C44" t="s">
+        <v>122</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="F44" s="2"/>
+      <c r="I44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>99</v>
+      </c>
+      <c r="B45" t="s">
+        <v>123</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45" t="s">
+        <v>51</v>
+      </c>
+      <c r="F45" s="2"/>
+      <c r="I45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>99</v>
+      </c>
+      <c r="B46" t="s">
+        <v>123</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46" t="s">
+        <v>59</v>
+      </c>
+      <c r="F46" s="2"/>
+      <c r="I46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>99</v>
+      </c>
+      <c r="B47" t="s">
+        <v>123</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47" t="s">
+        <v>60</v>
+      </c>
+      <c r="F47" s="2"/>
+      <c r="I47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>99</v>
+      </c>
+      <c r="B48" t="s">
+        <v>123</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48" t="s">
+        <v>61</v>
+      </c>
+      <c r="F48" s="2"/>
+      <c r="I48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>99</v>
+      </c>
+      <c r="B49" t="s">
+        <v>123</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49" t="s">
+        <v>86</v>
+      </c>
+      <c r="F49" s="2"/>
+      <c r="I49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>99</v>
+      </c>
+      <c r="B50" t="s">
+        <v>123</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50" t="s">
+        <v>87</v>
+      </c>
+      <c r="F50" s="2"/>
+      <c r="I50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51" t="s">
+        <v>119</v>
+      </c>
+      <c r="C51" t="s">
+        <v>120</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>100</v>
+      </c>
+      <c r="B52" t="s">
+        <v>46</v>
+      </c>
+      <c r="C52" t="s">
+        <v>121</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>100</v>
+      </c>
+      <c r="B53" t="s">
+        <v>119</v>
+      </c>
+      <c r="C53" t="s">
+        <v>122</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="F53" s="2"/>
+      <c r="I53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>100</v>
+      </c>
+      <c r="B54" t="s">
+        <v>123</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54" t="s">
+        <v>52</v>
+      </c>
+      <c r="F54" s="2"/>
+      <c r="I54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>100</v>
+      </c>
+      <c r="B55" t="s">
+        <v>123</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55" t="s">
+        <v>62</v>
+      </c>
+      <c r="F55" s="2"/>
+      <c r="I55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>100</v>
+      </c>
+      <c r="B56" t="s">
+        <v>123</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56" t="s">
+        <v>63</v>
+      </c>
+      <c r="F56" s="2"/>
+      <c r="I56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>100</v>
+      </c>
+      <c r="B57" t="s">
+        <v>123</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57" t="s">
+        <v>64</v>
+      </c>
+      <c r="F57" s="2"/>
+      <c r="I57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>100</v>
+      </c>
+      <c r="B58" t="s">
+        <v>123</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58" t="s">
+        <v>88</v>
+      </c>
+      <c r="F58" s="2"/>
+      <c r="I58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>100</v>
+      </c>
+      <c r="B59" t="s">
+        <v>123</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59" t="s">
+        <v>89</v>
+      </c>
+      <c r="F59" s="2"/>
+      <c r="I59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>101</v>
+      </c>
+      <c r="B60" t="s">
+        <v>119</v>
+      </c>
+      <c r="C60" t="s">
+        <v>120</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>101</v>
+      </c>
+      <c r="B61" t="s">
+        <v>46</v>
+      </c>
+      <c r="C61" t="s">
+        <v>121</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>101</v>
+      </c>
+      <c r="B62" t="s">
+        <v>119</v>
+      </c>
+      <c r="C62" t="s">
+        <v>122</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="F62" s="2"/>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>101</v>
+      </c>
+      <c r="B63" t="s">
+        <v>123</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63" t="s">
+        <v>53</v>
+      </c>
+      <c r="F63" s="2"/>
+      <c r="I63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>101</v>
+      </c>
+      <c r="B64" t="s">
+        <v>123</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64" t="s">
+        <v>65</v>
+      </c>
+      <c r="F64" s="2"/>
+      <c r="I64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>101</v>
+      </c>
+      <c r="B65" t="s">
+        <v>123</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65" t="s">
+        <v>66</v>
+      </c>
+      <c r="F65" s="2"/>
+      <c r="I65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>101</v>
+      </c>
+      <c r="B66" t="s">
+        <v>123</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66" t="s">
+        <v>67</v>
+      </c>
+      <c r="F66" s="2"/>
+      <c r="I66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>101</v>
+      </c>
+      <c r="B67" t="s">
+        <v>123</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67" t="s">
+        <v>90</v>
+      </c>
+      <c r="F67" s="2"/>
+      <c r="I67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>101</v>
+      </c>
+      <c r="B68" t="s">
+        <v>123</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68" t="s">
+        <v>91</v>
+      </c>
+      <c r="F68" s="2"/>
+      <c r="I68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>102</v>
+      </c>
+      <c r="B69" t="s">
+        <v>119</v>
+      </c>
+      <c r="C69" t="s">
+        <v>120</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>102</v>
+      </c>
+      <c r="B70" t="s">
+        <v>46</v>
+      </c>
+      <c r="C70" t="s">
+        <v>121</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>103</v>
+      </c>
+      <c r="B71" t="s">
+        <v>119</v>
+      </c>
+      <c r="C71" t="s">
+        <v>120</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>103</v>
+      </c>
+      <c r="B72" t="s">
+        <v>46</v>
+      </c>
+      <c r="C72" t="s">
+        <v>121</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>104</v>
+      </c>
+      <c r="B73" t="s">
+        <v>119</v>
+      </c>
+      <c r="C73" t="s">
+        <v>120</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>104</v>
+      </c>
+      <c r="B74" t="s">
+        <v>46</v>
+      </c>
+      <c r="C74" t="s">
+        <v>121</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>104</v>
+      </c>
+      <c r="B75" t="s">
+        <v>119</v>
+      </c>
+      <c r="C75" t="s">
+        <v>122</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="F75" s="2"/>
+      <c r="I75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>104</v>
+      </c>
+      <c r="B76" t="s">
+        <v>123</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76" t="s">
+        <v>54</v>
+      </c>
+      <c r="F76" s="2"/>
+      <c r="I76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>104</v>
+      </c>
+      <c r="B77" t="s">
+        <v>123</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77" t="s">
+        <v>68</v>
+      </c>
+      <c r="F77" s="2"/>
+      <c r="I77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>104</v>
+      </c>
+      <c r="B78" t="s">
+        <v>123</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78" t="s">
+        <v>69</v>
+      </c>
+      <c r="F78" s="2"/>
+      <c r="I78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>104</v>
+      </c>
+      <c r="B79" t="s">
+        <v>123</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79" t="s">
+        <v>70</v>
+      </c>
+      <c r="F79" s="2"/>
+      <c r="I79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>104</v>
+      </c>
+      <c r="B80" t="s">
+        <v>123</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80" t="s">
+        <v>92</v>
+      </c>
+      <c r="F80" s="2"/>
+      <c r="I80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>123</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81" t="s">
+        <v>93</v>
+      </c>
+      <c r="F81" s="2"/>
+      <c r="I81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>105</v>
+      </c>
+      <c r="B82" t="s">
+        <v>119</v>
+      </c>
+      <c r="C82" t="s">
+        <v>120</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>105</v>
+      </c>
+      <c r="B83" t="s">
+        <v>46</v>
+      </c>
+      <c r="C83" t="s">
+        <v>121</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>105</v>
+      </c>
+      <c r="B84" t="s">
+        <v>119</v>
+      </c>
+      <c r="C84" t="s">
+        <v>122</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+      <c r="F84" s="2"/>
+      <c r="I84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>105</v>
+      </c>
+      <c r="B85" t="s">
+        <v>123</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="E85" t="s">
+        <v>55</v>
+      </c>
+      <c r="F85" s="2"/>
+      <c r="I85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>105</v>
+      </c>
+      <c r="B86" t="s">
+        <v>123</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86" t="s">
+        <v>71</v>
+      </c>
+      <c r="F86" s="2"/>
+      <c r="I86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>105</v>
+      </c>
+      <c r="B87" t="s">
+        <v>123</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87" t="s">
+        <v>72</v>
+      </c>
+      <c r="F87" s="2"/>
+      <c r="I87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>105</v>
+      </c>
+      <c r="B88" t="s">
+        <v>123</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88" t="s">
+        <v>73</v>
+      </c>
+      <c r="F88" s="2"/>
+      <c r="I88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>105</v>
+      </c>
+      <c r="B89" t="s">
+        <v>123</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89" t="s">
+        <v>94</v>
+      </c>
+      <c r="F89" s="2"/>
+      <c r="I89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>105</v>
+      </c>
+      <c r="B90" t="s">
+        <v>123</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+      <c r="E90" t="s">
+        <v>95</v>
+      </c>
+      <c r="F90" s="2"/>
+      <c r="I90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>106</v>
+      </c>
+      <c r="B91" t="s">
+        <v>119</v>
+      </c>
+      <c r="C91" t="s">
+        <v>120</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>106</v>
+      </c>
+      <c r="B92" t="s">
+        <v>46</v>
+      </c>
+      <c r="C92" t="s">
+        <v>121</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>106</v>
+      </c>
+      <c r="B93" t="s">
+        <v>119</v>
+      </c>
+      <c r="C93" t="s">
+        <v>122</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="F93" s="2"/>
+      <c r="I93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>107</v>
+      </c>
+      <c r="B94" t="s">
+        <v>119</v>
+      </c>
+      <c r="C94" t="s">
+        <v>120</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>107</v>
+      </c>
+      <c r="B95" t="s">
+        <v>46</v>
+      </c>
+      <c r="C95" t="s">
+        <v>121</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>107</v>
+      </c>
+      <c r="B96" t="s">
+        <v>119</v>
+      </c>
+      <c r="C96" t="s">
+        <v>122</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+      <c r="F96" s="2"/>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>107</v>
+      </c>
+      <c r="B97" t="s">
+        <v>123</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97" t="s">
+        <v>108</v>
+      </c>
+      <c r="F97" s="2"/>
+      <c r="I97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>107</v>
+      </c>
+      <c r="B98" t="s">
+        <v>123</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="E98" t="s">
+        <v>109</v>
+      </c>
+      <c r="F98" s="2"/>
+      <c r="I98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>107</v>
+      </c>
+      <c r="B99" t="s">
+        <v>123</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="E99" t="s">
+        <v>110</v>
+      </c>
+      <c r="F99" s="2"/>
+      <c r="I99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>107</v>
+      </c>
+      <c r="B100" t="s">
+        <v>123</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+      <c r="E100" t="s">
+        <v>111</v>
+      </c>
+      <c r="F100" s="2"/>
+      <c r="I100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>107</v>
+      </c>
+      <c r="B101" t="s">
+        <v>123</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="E101" t="s">
+        <v>112</v>
+      </c>
+      <c r="F101" s="2"/>
+      <c r="I101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>107</v>
+      </c>
+      <c r="B102" t="s">
+        <v>123</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+      <c r="E102" t="s">
+        <v>113</v>
+      </c>
+      <c r="F102" s="2"/>
+      <c r="I102">
         <v>1</v>
       </c>
     </row>
@@ -3083,11 +4386,23 @@
     <hyperlink ref="F13" r:id="rId2" xr:uid="{A3E0C86D-CC2E-4D92-8C5C-58BB4AEC1273}"/>
     <hyperlink ref="F7" r:id="rId3" xr:uid="{57D7166F-2A1C-4B9D-9B14-818E47EC13DA}"/>
     <hyperlink ref="F11" r:id="rId4" xr:uid="{ABF9187E-177D-46B3-AE8C-B97246181522}"/>
+    <hyperlink ref="F16" r:id="rId5" xr:uid="{90484DA1-7557-43FD-9979-710A960AD53D}"/>
+    <hyperlink ref="F25" r:id="rId6" xr:uid="{7534FD1E-E41D-4D55-BA8F-F6B3BC4773AD}"/>
+    <hyperlink ref="F34" r:id="rId7" xr:uid="{045BC3B3-54C4-4700-9739-0383ECFB9EF0}"/>
+    <hyperlink ref="F43" r:id="rId8" xr:uid="{07253DC4-FD3E-4A09-88DC-5E377F2CB651}"/>
+    <hyperlink ref="F52" r:id="rId9" xr:uid="{E2E9C429-DABA-4B97-8B10-82E2F6727804}"/>
+    <hyperlink ref="F61" r:id="rId10" xr:uid="{08E4CE10-1654-448A-BE20-CCF592E7C5EC}"/>
+    <hyperlink ref="F70" r:id="rId11" xr:uid="{4831A649-62C7-4714-99B7-511336960C96}"/>
+    <hyperlink ref="F72" r:id="rId12" xr:uid="{5594830C-5FD9-4CED-A6D4-A24EDD4AF18D}"/>
+    <hyperlink ref="F74" r:id="rId13" xr:uid="{1631E718-76C5-4434-9183-21900DEA9BAD}"/>
+    <hyperlink ref="F83" r:id="rId14" xr:uid="{5A6B4CCE-2FB4-4818-A44F-BA5B7460A329}"/>
+    <hyperlink ref="F92" r:id="rId15" xr:uid="{B3236130-52CA-454D-9DDF-D46C12229913}"/>
+    <hyperlink ref="F95" r:id="rId16" xr:uid="{33349435-67FD-4387-989B-E893D6E57986}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
   <tableParts count="1">
-    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId18"/>
   </tableParts>
 </worksheet>
 </file>
